--- a/data/panelapp/au/Vasculopathy SuperPanel.xlsx
+++ b/data/panelapp/au/Vasculopathy SuperPanel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680795</t>
+          <t>2021-10-05 14:35:55.704172</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680809</t>
+          <t>2021-10-05 14:35:55.704180</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680814</t>
+          <t>2021-10-05 14:35:55.704183</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680817</t>
+          <t>2021-10-05 14:35:55.704185</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680820</t>
+          <t>2021-10-05 14:35:55.704188</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680823</t>
+          <t>2021-10-05 14:35:55.704191</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680825</t>
+          <t>2021-10-05 14:35:55.704193</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680828</t>
+          <t>2021-10-05 14:35:55.704196</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680853</t>
+          <t>2021-10-05 14:35:55.704199</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680857</t>
+          <t>2021-10-05 14:35:55.704201</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680860</t>
+          <t>2021-10-05 14:35:55.704204</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680862</t>
+          <t>2021-10-05 14:35:55.704206</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680865</t>
+          <t>2021-10-05 14:35:55.704209</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680867</t>
+          <t>2021-10-05 14:35:55.704211</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680870</t>
+          <t>2021-10-05 14:35:55.704214</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680872</t>
+          <t>2021-10-05 14:35:55.704216</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680875</t>
+          <t>2021-10-05 14:35:55.704219</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680878</t>
+          <t>2021-10-05 14:35:55.704221</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680880</t>
+          <t>2021-10-05 14:35:55.704224</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680883</t>
+          <t>2021-10-05 14:35:55.704226</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680885</t>
+          <t>2021-10-05 14:35:55.704229</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680888</t>
+          <t>2021-10-05 14:35:55.704231</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680890</t>
+          <t>2021-10-05 14:35:55.704233</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680893</t>
+          <t>2021-10-05 14:35:55.704236</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680895</t>
+          <t>2021-10-05 14:35:55.704239</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680898</t>
+          <t>2021-10-05 14:35:55.704245</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680900</t>
+          <t>2021-10-05 14:35:55.704247</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680903</t>
+          <t>2021-10-05 14:35:55.704250</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680905</t>
+          <t>2021-10-05 14:35:55.704252</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680908</t>
+          <t>2021-10-05 14:35:55.704255</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680910</t>
+          <t>2021-10-05 14:35:55.704257</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680913</t>
+          <t>2021-10-05 14:35:55.704260</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680916</t>
+          <t>2021-10-05 14:35:55.704263</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680918</t>
+          <t>2021-10-05 14:35:55.704265</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680921</t>
+          <t>2021-10-05 14:35:55.704268</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680923</t>
+          <t>2021-10-05 14:35:55.704270</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680926</t>
+          <t>2021-10-05 14:35:55.704272</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680928</t>
+          <t>2021-10-05 14:35:55.704275</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680931</t>
+          <t>2021-10-05 14:35:55.704277</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680933</t>
+          <t>2021-10-05 14:35:55.704280</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680936</t>
+          <t>2021-10-05 14:35:55.704282</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680938</t>
+          <t>2021-10-05 14:35:55.704285</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680941</t>
+          <t>2021-10-05 14:35:55.704287</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680943</t>
+          <t>2021-10-05 14:35:55.704290</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680946</t>
+          <t>2021-10-05 14:35:55.704292</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680948</t>
+          <t>2021-10-05 14:35:55.704295</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680951</t>
+          <t>2021-10-05 14:35:55.704297</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680953</t>
+          <t>2021-10-05 14:35:55.704300</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680956</t>
+          <t>2021-10-05 14:35:55.704302</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680958</t>
+          <t>2021-10-05 14:35:55.704308</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680961</t>
+          <t>2021-10-05 14:35:55.704310</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680963</t>
+          <t>2021-10-05 14:35:55.704313</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680966</t>
+          <t>2021-10-05 14:35:55.704316</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680968</t>
+          <t>2021-10-05 14:35:55.704318</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680971</t>
+          <t>2021-10-05 14:35:55.704321</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680973</t>
+          <t>2021-10-05 14:35:55.704323</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680975</t>
+          <t>2021-10-05 14:35:55.704326</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680978</t>
+          <t>2021-10-05 14:35:55.704328</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680980</t>
+          <t>2021-10-05 14:35:55.704331</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680983</t>
+          <t>2021-10-05 14:35:55.704333</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680985</t>
+          <t>2021-10-05 14:35:55.704336</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680988</t>
+          <t>2021-10-05 14:35:55.704338</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680990</t>
+          <t>2021-10-05 14:35:55.704340</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680993</t>
+          <t>2021-10-05 14:35:55.704343</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.680997</t>
+          <t>2021-10-05 14:35:55.704347</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681000</t>
+          <t>2021-10-05 14:35:55.704349</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681002</t>
+          <t>2021-10-05 14:35:55.704352</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681005</t>
+          <t>2021-10-05 14:35:55.704355</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681007</t>
+          <t>2021-10-05 14:35:55.704357</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681010</t>
+          <t>2021-10-05 14:35:55.704360</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681012</t>
+          <t>2021-10-05 14:35:55.704362</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681015</t>
+          <t>2021-10-05 14:35:55.704365</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681017</t>
+          <t>2021-10-05 14:35:55.704367</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681019</t>
+          <t>2021-10-05 14:35:55.704370</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681022</t>
+          <t>2021-10-05 14:35:55.704372</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681024</t>
+          <t>2021-10-05 14:35:55.704375</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681028</t>
+          <t>2021-10-05 14:35:55.704379</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681031</t>
+          <t>2021-10-05 14:35:55.704382</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681034</t>
+          <t>2021-10-05 14:35:55.704385</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681037</t>
+          <t>2021-10-05 14:35:55.704387</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681039</t>
+          <t>2021-10-05 14:35:55.704390</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681042</t>
+          <t>2021-10-05 14:35:55.704392</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681044</t>
+          <t>2021-10-05 14:35:55.704395</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681046</t>
+          <t>2021-10-05 14:35:55.704397</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681049</t>
+          <t>2021-10-05 14:35:55.704400</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681051</t>
+          <t>2021-10-05 14:35:55.704402</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681054</t>
+          <t>2021-10-05 14:35:55.704405</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681056</t>
+          <t>2021-10-05 14:35:55.704407</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681059</t>
+          <t>2021-10-05 14:35:55.704409</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681061</t>
+          <t>2021-10-05 14:35:55.704412</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681063</t>
+          <t>2021-10-05 14:35:55.704414</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681066</t>
+          <t>2021-10-05 14:35:55.704417</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681069</t>
+          <t>2021-10-05 14:35:55.704420</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681072</t>
+          <t>2021-10-05 14:35:55.704424</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681075</t>
+          <t>2021-10-05 14:35:55.704426</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681077</t>
+          <t>2021-10-05 14:35:55.704429</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681080</t>
+          <t>2021-10-05 14:35:55.704431</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681082</t>
+          <t>2021-10-05 14:35:55.704433</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681084</t>
+          <t>2021-10-05 14:35:55.704436</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681087</t>
+          <t>2021-10-05 14:35:55.704438</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681089</t>
+          <t>2021-10-05 14:35:55.704441</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681092</t>
+          <t>2021-10-05 14:35:55.704443</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681094</t>
+          <t>2021-10-05 14:35:55.704446</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681097</t>
+          <t>2021-10-05 14:35:55.704448</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681099</t>
+          <t>2021-10-05 14:35:55.704451</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681102</t>
+          <t>2021-10-05 14:35:55.704453</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681104</t>
+          <t>2021-10-05 14:35:55.704456</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681106</t>
+          <t>2021-10-05 14:35:55.704458</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681111</t>
+          <t>2021-10-05 14:35:55.704463</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681114</t>
+          <t>2021-10-05 14:35:55.704466</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681116</t>
+          <t>2021-10-05 14:35:55.704469</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681118</t>
+          <t>2021-10-05 14:35:55.704471</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681121</t>
+          <t>2021-10-05 14:35:55.704474</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681123</t>
+          <t>2021-10-05 14:35:55.704476</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681126</t>
+          <t>2021-10-05 14:35:55.704478</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681128</t>
+          <t>2021-10-05 14:35:55.704481</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681131</t>
+          <t>2021-10-05 14:35:55.704483</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681133</t>
+          <t>2021-10-05 14:35:55.704486</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681136</t>
+          <t>2021-10-05 14:35:55.704488</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681139</t>
+          <t>2021-10-05 14:35:55.704491</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681141</t>
+          <t>2021-10-05 14:35:55.704493</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681143</t>
+          <t>2021-10-05 14:35:55.704496</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681146</t>
+          <t>2021-10-05 14:35:55.704498</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681149</t>
+          <t>2021-10-05 14:35:55.704501</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681151</t>
+          <t>2021-10-05 14:35:55.704503</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681154</t>
+          <t>2021-10-05 14:35:55.704506</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681156</t>
+          <t>2021-10-05 14:35:55.704508</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681159</t>
+          <t>2021-10-05 14:35:55.704511</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681163</t>
+          <t>2021-10-05 14:35:55.704515</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681166</t>
+          <t>2021-10-05 14:35:55.704518</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681169</t>
+          <t>2021-10-05 14:35:55.704520</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,91 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:55.681171</t>
+          <t>2021-10-05 14:35:55.704523</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Vasculopathy SuperPanel</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3731</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-09-29T23:53:06.492144Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:35:55.700837</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/3731/?format=json</t>
         </is>
       </c>
     </row>
